--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H2">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I2">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J2">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>4.322832768284878</v>
+        <v>4.576442655794</v>
       </c>
       <c r="R2">
-        <v>4.322832768284878</v>
+        <v>27.458655934764</v>
       </c>
       <c r="S2">
-        <v>0.001255777219218722</v>
+        <v>0.00121349655260231</v>
       </c>
       <c r="T2">
-        <v>0.001255777219218722</v>
+        <v>0.0009326525058451412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H3">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I3">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J3">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>160.2429153201169</v>
+        <v>181.2163254298507</v>
       </c>
       <c r="R3">
-        <v>160.2429153201169</v>
+        <v>1630.946928868656</v>
       </c>
       <c r="S3">
-        <v>0.04655035560860639</v>
+        <v>0.04805159874689376</v>
       </c>
       <c r="T3">
-        <v>0.04655035560860639</v>
+        <v>0.05539625623787339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H4">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I4">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J4">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>6.176683603279627</v>
+        <v>0.2826462492364444</v>
       </c>
       <c r="R4">
-        <v>6.176683603279627</v>
+        <v>2.543816243128</v>
       </c>
       <c r="S4">
-        <v>0.001794318442348127</v>
+        <v>7.494691288661866E-05</v>
       </c>
       <c r="T4">
-        <v>0.001794318442348127</v>
+        <v>8.640250270076788E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H5">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I5">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J5">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>103.6619192402723</v>
+        <v>8.119184960896224</v>
       </c>
       <c r="R5">
-        <v>103.6619192402723</v>
+        <v>73.07266464806601</v>
       </c>
       <c r="S5">
-        <v>0.03011365085355209</v>
+        <v>0.002152895535031825</v>
       </c>
       <c r="T5">
-        <v>0.03011365085355209</v>
+        <v>0.002481964301337759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.7869505606232</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H6">
-        <v>21.7869505606232</v>
+        <v>13.740554</v>
       </c>
       <c r="I6">
-        <v>0.4007065611131276</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J6">
-        <v>0.4007065611131276</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>21.7300001718394</v>
+        <v>113.214422157821</v>
       </c>
       <c r="R6">
-        <v>21.7300001718394</v>
+        <v>679.2865329469259</v>
       </c>
       <c r="S6">
-        <v>0.006312536397340581</v>
+        <v>0.03002010979410872</v>
       </c>
       <c r="T6">
-        <v>0.006312536397340581</v>
+        <v>0.02307244348175536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H7">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I7">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J7">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>805.5085089085534</v>
+        <v>22.49781692091799</v>
       </c>
       <c r="R7">
-        <v>805.5085089085534</v>
+        <v>134.986901525508</v>
       </c>
       <c r="S7">
-        <v>0.2339991597166363</v>
+        <v>0.005965555635237224</v>
       </c>
       <c r="T7">
-        <v>0.2339991597166363</v>
+        <v>0.004584924777932996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H8">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I8">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J8">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>31.04893086435926</v>
+        <v>890.8604388259147</v>
       </c>
       <c r="R8">
-        <v>31.04893086435926</v>
+        <v>8017.743949433232</v>
       </c>
       <c r="S8">
-        <v>0.009019673475832667</v>
+        <v>0.2362219200969029</v>
       </c>
       <c r="T8">
-        <v>0.009019673475832667</v>
+        <v>0.2723282961638484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H9">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I9">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J9">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>521.0873618407512</v>
+        <v>1.389490494468444</v>
       </c>
       <c r="R9">
-        <v>521.0873618407512</v>
+        <v>12.505414450216</v>
       </c>
       <c r="S9">
-        <v>0.151375191523318</v>
+        <v>0.0003684394303021361</v>
       </c>
       <c r="T9">
-        <v>0.151375191523318</v>
+        <v>0.0004247551719696449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.4196689419225</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H10">
-        <v>27.4196689419225</v>
+        <v>67.548638</v>
       </c>
       <c r="I10">
-        <v>0.5043037674320546</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J10">
-        <v>0.5043037674320546</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>27.34799480826068</v>
+        <v>39.91395731050023</v>
       </c>
       <c r="R10">
-        <v>27.34799480826068</v>
+        <v>359.2256157945021</v>
       </c>
       <c r="S10">
-        <v>0.007944556431488219</v>
+        <v>0.01058364612865544</v>
       </c>
       <c r="T10">
-        <v>0.007944556431488219</v>
+        <v>0.01220134996885767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.4196689419225</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H11">
-        <v>27.4196689419225</v>
+        <v>67.548638</v>
       </c>
       <c r="I11">
-        <v>0.5043037674320546</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J11">
-        <v>0.5043037674320546</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>1013.761727815771</v>
+        <v>556.562713462487</v>
       </c>
       <c r="R11">
-        <v>1013.761727815771</v>
+        <v>3339.376280774922</v>
       </c>
       <c r="S11">
-        <v>0.2944964452122337</v>
+        <v>0.1475790225927211</v>
       </c>
       <c r="T11">
-        <v>0.2944964452122337</v>
+        <v>0.1134242573133916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H12">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I12">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J12">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>39.07620770205751</v>
+        <v>28.047104112832</v>
       </c>
       <c r="R12">
-        <v>39.07620770205751</v>
+        <v>168.282624676992</v>
       </c>
       <c r="S12">
-        <v>0.01135158681263822</v>
+        <v>0.007437013136897858</v>
       </c>
       <c r="T12">
-        <v>0.01135158681263822</v>
+        <v>0.005715837365385704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H13">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I13">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J13">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9174069079012</v>
+        <v>39.565288</v>
       </c>
       <c r="N13">
-        <v>23.9174069079012</v>
+        <v>118.695864</v>
       </c>
       <c r="O13">
-        <v>0.3777706836214788</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P13">
-        <v>0.3777706836214788</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q13">
-        <v>655.8073793639012</v>
+        <v>1110.599111264085</v>
       </c>
       <c r="R13">
-        <v>655.8073793639012</v>
+        <v>9995.392001376769</v>
       </c>
       <c r="S13">
-        <v>0.1905111789756945</v>
+        <v>0.2944881634506864</v>
       </c>
       <c r="T13">
-        <v>0.1905111789756945</v>
+        <v>0.3395004991918097</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H14">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I14">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J14">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.997386032128483</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N14">
-        <v>0.997386032128483</v>
+        <v>0.185132</v>
       </c>
       <c r="O14">
-        <v>0.01575351394248427</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P14">
-        <v>0.01575351394248427</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q14">
-        <v>0.8283820541083401</v>
+        <v>1.732220717198222</v>
       </c>
       <c r="R14">
-        <v>0.8283820541083401</v>
+        <v>15.589986454784</v>
       </c>
       <c r="S14">
-        <v>0.0002406438944367487</v>
+        <v>0.0004593183017392457</v>
       </c>
       <c r="T14">
-        <v>0.0002406438944367487</v>
+        <v>0.0005295248233449661</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H15">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I15">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J15">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.9720630093316</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N15">
-        <v>36.9720630093316</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O15">
-        <v>0.5839663794538508</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P15">
-        <v>0.5839663794538508</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q15">
-        <v>30.70726129473982</v>
+        <v>49.75909085658313</v>
       </c>
       <c r="R15">
-        <v>30.70726129473982</v>
+        <v>447.8318177092481</v>
       </c>
       <c r="S15">
-        <v>0.008920418916374288</v>
+        <v>0.01319419683728399</v>
       </c>
       <c r="T15">
-        <v>0.008920418916374288</v>
+        <v>0.01521092175727809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H16">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I16">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J16">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4251159554415</v>
+        <v>24.7183095</v>
       </c>
       <c r="N16">
-        <v>1.4251159554415</v>
+        <v>49.436619</v>
       </c>
       <c r="O16">
-        <v>0.02250942298218628</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P16">
-        <v>0.02250942298218628</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q16">
-        <v>1.183634464974263</v>
+        <v>693.8438704818881</v>
       </c>
       <c r="R16">
-        <v>1.183634464974263</v>
+        <v>4163.063222891328</v>
       </c>
       <c r="S16">
-        <v>0.0003438442513672704</v>
+        <v>0.1839807047091545</v>
       </c>
       <c r="T16">
-        <v>0.0003438442513672704</v>
+        <v>0.1414013619619914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.252062</v>
+      </c>
+      <c r="I17">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J17">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.998366</v>
+      </c>
+      <c r="O17">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P17">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q17">
+        <v>0.08395202178200001</v>
+      </c>
+      <c r="R17">
+        <v>0.5037121306919999</v>
+      </c>
+      <c r="S17">
+        <v>2.226084683645532E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.710893577714101E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.252062</v>
+      </c>
+      <c r="I18">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J18">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>39.565288</v>
+      </c>
+      <c r="N18">
+        <v>118.695864</v>
+      </c>
+      <c r="O18">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P18">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q18">
+        <v>3.324301874618667</v>
+      </c>
+      <c r="R18">
+        <v>29.918716871568</v>
+      </c>
+      <c r="S18">
+        <v>0.0008814769829032754</v>
+      </c>
+      <c r="T18">
+        <v>0.001016210200828208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.252062</v>
+      </c>
+      <c r="I19">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J19">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.185132</v>
+      </c>
+      <c r="O19">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P19">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q19">
+        <v>0.005184971353777778</v>
+      </c>
+      <c r="R19">
+        <v>0.046664742184</v>
+      </c>
+      <c r="S19">
+        <v>1.374854955340728E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.585000694714417E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.252062</v>
+      </c>
+      <c r="I20">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J20">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N20">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P20">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q20">
+        <v>0.1489414473108889</v>
+      </c>
+      <c r="R20">
+        <v>1.340473025798</v>
+      </c>
+      <c r="S20">
+        <v>3.949354257122324E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.5530106407922E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.252062</v>
+      </c>
+      <c r="I21">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J21">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.7183095</v>
+      </c>
+      <c r="N21">
+        <v>49.436619</v>
+      </c>
+      <c r="O21">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P21">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q21">
+        <v>2.076848843063</v>
+      </c>
+      <c r="R21">
+        <v>12.461093058378</v>
+      </c>
+      <c r="S21">
+        <v>0.0005507004240820734</v>
+      </c>
+      <c r="T21">
+        <v>0.0004232497648128467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.939134</v>
+      </c>
+      <c r="H22">
+        <v>1.878268</v>
+      </c>
+      <c r="I22">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J22">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.998366</v>
+      </c>
+      <c r="O22">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P22">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q22">
+        <v>0.938366727522</v>
+      </c>
+      <c r="R22">
+        <v>3.753466910088</v>
+      </c>
+      <c r="S22">
+        <v>0.0002488187604586287</v>
+      </c>
+      <c r="T22">
+        <v>0.0001274891359437721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.939134</v>
+      </c>
+      <c r="H23">
+        <v>1.878268</v>
+      </c>
+      <c r="I23">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J23">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.565288</v>
+      </c>
+      <c r="N23">
+        <v>118.695864</v>
+      </c>
+      <c r="O23">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P23">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q23">
+        <v>37.157107180592</v>
+      </c>
+      <c r="R23">
+        <v>222.942643083552</v>
+      </c>
+      <c r="S23">
+        <v>0.009852635520568963</v>
+      </c>
+      <c r="T23">
+        <v>0.007572403224163886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.939134</v>
+      </c>
+      <c r="H24">
+        <v>1.878268</v>
+      </c>
+      <c r="I24">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J24">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.185132</v>
+      </c>
+      <c r="O24">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P24">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q24">
+        <v>0.05795458522933333</v>
+      </c>
+      <c r="R24">
+        <v>0.347727511376</v>
+      </c>
+      <c r="S24">
+        <v>1.536732669298379E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.181080878855146E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="H17">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="I17">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="J17">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N17">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O17">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P17">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q17">
-        <v>19.86467628890949</v>
-      </c>
-      <c r="R17">
-        <v>19.86467628890949</v>
-      </c>
-      <c r="S17">
-        <v>0.005770662268914057</v>
-      </c>
-      <c r="T17">
-        <v>0.005770662268914057</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.939134</v>
+      </c>
+      <c r="H25">
+        <v>1.878268</v>
+      </c>
+      <c r="I25">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J25">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>1.664780615628667</v>
+      </c>
+      <c r="R25">
+        <v>9.988683693772002</v>
+      </c>
+      <c r="S25">
+        <v>0.0004414357809874139</v>
+      </c>
+      <c r="T25">
+        <v>0.0003392726468194129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.939134</v>
+      </c>
+      <c r="H26">
+        <v>1.878268</v>
+      </c>
+      <c r="I26">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J26">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>23.213804873973</v>
+      </c>
+      <c r="R26">
+        <v>92.855219495892</v>
+      </c>
+      <c r="S26">
+        <v>0.006155408098839499</v>
+      </c>
+      <c r="T26">
+        <v>0.003153892650441145</v>
       </c>
     </row>
   </sheetData>
